--- a/kelapaMajene.xlsx
+++ b/kelapaMajene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Kabupaten</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>longtitude</t>
-  </si>
-  <si>
-    <t>cluster_id</t>
   </si>
   <si>
     <t>BANGGAE</t>
@@ -1251,10 +1248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1270,7 +1267,7 @@
     <col min="10" max="10" width="13.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1" spans="1:11">
+    <row r="1" ht="28" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1301,13 +1298,10 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>91</v>
@@ -1336,13 +1330,10 @@
       <c r="J2">
         <v>118.96761</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>216</v>
@@ -1371,13 +1362,10 @@
       <c r="J3">
         <v>118.97249</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>98.75</v>
@@ -1406,13 +1394,10 @@
       <c r="J4">
         <v>118.89638</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>124.5</v>
@@ -1441,13 +1426,10 @@
       <c r="J5">
         <v>118.84815</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>66</v>
@@ -1476,13 +1458,10 @@
       <c r="J6">
         <v>118.87133</v>
       </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>65</v>
@@ -1511,13 +1490,10 @@
       <c r="J7">
         <v>118.81919</v>
       </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>117</v>
@@ -1546,13 +1522,10 @@
       <c r="J8">
         <v>118.85802</v>
       </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -1580,9 +1553,6 @@
       </c>
       <c r="J9">
         <v>118.83737</v>
-      </c>
-      <c r="K9">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/kelapaMajene.xlsx
+++ b/kelapaMajene.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -990,6 +993,119 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TBM</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>TM</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>TR/TT</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>91</v>
+          </cell>
+          <cell r="B2">
+            <v>278</v>
+          </cell>
+          <cell r="C2">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>216</v>
+          </cell>
+          <cell r="B3">
+            <v>1023</v>
+          </cell>
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>98.75</v>
+          </cell>
+          <cell r="B4">
+            <v>1262.25</v>
+          </cell>
+          <cell r="C4">
+            <v>67</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>124.5</v>
+          </cell>
+          <cell r="B5">
+            <v>745</v>
+          </cell>
+          <cell r="C5">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>66</v>
+          </cell>
+          <cell r="B6">
+            <v>374</v>
+          </cell>
+          <cell r="C6">
+            <v>84</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>65</v>
+          </cell>
+          <cell r="B7">
+            <v>208</v>
+          </cell>
+          <cell r="C7">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>117</v>
+          </cell>
+          <cell r="B8">
+            <v>2215</v>
+          </cell>
+          <cell r="C8">
+            <v>246</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>5</v>
+          </cell>
+          <cell r="B9">
+            <v>601</v>
+          </cell>
+          <cell r="C9">
+            <v>50</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1251,7 +1367,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1271,13 +1387,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1303,13 +1419,13 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>91</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>278</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>63</v>
       </c>
       <c r="E2" s="1">
@@ -1335,13 +1451,13 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>216</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>1023</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1">
@@ -1367,13 +1483,13 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>98.75</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1262.25</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>67</v>
       </c>
       <c r="E4" s="1">
@@ -1399,13 +1515,13 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>124.5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>745</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>48</v>
       </c>
       <c r="E5" s="1">
@@ -1431,13 +1547,13 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>66</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>374</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>84</v>
       </c>
       <c r="E6" s="1">
@@ -1463,13 +1579,13 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>65</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>208</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>90</v>
       </c>
       <c r="E7" s="1">
@@ -1495,13 +1611,13 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>117</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>2215</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>246</v>
       </c>
       <c r="E8" s="1">
@@ -1527,13 +1643,13 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>601</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>50</v>
       </c>
       <c r="E9" s="1">
